--- a/ProjetJava1/avancement.xlsx
+++ b/ProjetJava1/avancement.xlsx
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,7 +518,7 @@
       <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>39</v>
       </c>
@@ -530,7 +530,7 @@
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -548,7 +548,7 @@
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -557,7 +557,7 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -566,7 +566,7 @@
       <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -575,7 +575,7 @@
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -584,7 +584,7 @@
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -593,7 +593,7 @@
       <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -602,7 +602,7 @@
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -611,7 +611,7 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -620,7 +620,7 @@
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -629,7 +629,7 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -638,7 +638,7 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -647,7 +647,7 @@
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">

--- a/ProjetJava1/avancement.xlsx
+++ b/ProjetJava1/avancement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profiles\atordjmann\IdeaProjects\javaEcole\ProjetJava1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Profiles\atordjmann\IdeaProjects\javaEcole\ProjetJava1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>classe Personne</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>PT : récupère, AT : modifie</t>
+  </si>
+  <si>
+    <t>Revoir méthode d'achat</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,12 +172,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,12 +200,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,7 +535,7 @@
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -649,16 +645,16 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -667,7 +663,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -676,7 +672,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -685,7 +681,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -694,16 +690,16 @@
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -712,7 +708,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -721,7 +717,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -730,7 +726,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -739,7 +735,7 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -748,7 +744,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -757,7 +753,7 @@
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -766,32 +762,35 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C31" s="1"/>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -800,7 +799,7 @@
       <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
